--- a/data/top_decade_songs.xlsx
+++ b/data/top_decade_songs.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\SICSS India\sicss-project-github\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CB278-6AE6-4ACF-B943-18B185330A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="top_decade_songs" sheetId="1" r:id="rId4"/>
+    <sheet name="top_decade_songs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">top_decade_songs!$V$1:$V$71</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -9134,7 +9146,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Carnival!
 The Last Ride!
 King!
@@ -9214,8 +9225,10 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.ilyricshub.com/tu-aake-dekhle-king/</t>
     </r>
@@ -9404,7 +9417,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Meri Jaan Meri Jaan Meri Jaan
 Meri Jaan Meri Jaan Meri Jaan
 Aayi Hai Jo Raat Nasheeli
@@ -9449,8 +9461,10 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.ilyricshub.com/meri-jaan-gangubai-kathiawadi/</t>
     </r>
@@ -9624,26 +9638,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9651,48 +9675,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -9882,27 +9907,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="59.75"/>
-    <col customWidth="1" min="24" max="24" width="28.88"/>
+    <col min="2" max="2" width="59.7265625" customWidth="1"/>
+    <col min="24" max="24" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9976,7 +10004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -10050,7 +10078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -10124,7 +10152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -10198,7 +10226,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -10272,7 +10300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -10346,7 +10374,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -10420,7 +10448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>144</v>
       </c>
@@ -10485,7 +10513,7 @@
         <v>160</v>
       </c>
       <c r="V8" s="1">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>161</v>
@@ -10494,7 +10522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -10568,7 +10596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>181</v>
       </c>
@@ -10642,7 +10670,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>196</v>
       </c>
@@ -10716,7 +10744,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -10790,7 +10818,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>235</v>
       </c>
@@ -10864,7 +10892,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>254</v>
       </c>
@@ -10938,7 +10966,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -11012,7 +11040,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>286</v>
       </c>
@@ -11086,7 +11114,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>305</v>
       </c>
@@ -11160,7 +11188,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>324</v>
       </c>
@@ -11234,7 +11262,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>339</v>
       </c>
@@ -11308,7 +11336,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>354</v>
       </c>
@@ -11382,7 +11410,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>368</v>
       </c>
@@ -11456,7 +11484,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>381</v>
       </c>
@@ -11530,7 +11558,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>399</v>
       </c>
@@ -11604,7 +11632,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>418</v>
       </c>
@@ -11678,7 +11706,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>433</v>
       </c>
@@ -11752,7 +11780,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>451</v>
       </c>
@@ -11826,7 +11854,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>468</v>
       </c>
@@ -11900,7 +11928,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>487</v>
       </c>
@@ -11974,7 +12002,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>504</v>
       </c>
@@ -12048,7 +12076,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>518</v>
       </c>
@@ -12122,7 +12150,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>533</v>
       </c>
@@ -12196,7 +12224,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>546</v>
       </c>
@@ -12270,7 +12298,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>563</v>
       </c>
@@ -12344,7 +12372,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>579</v>
       </c>
@@ -12418,7 +12446,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>597</v>
       </c>
@@ -12492,7 +12520,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>614</v>
       </c>
@@ -12566,7 +12594,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>630</v>
       </c>
@@ -12640,7 +12668,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>644</v>
       </c>
@@ -12714,7 +12742,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>659</v>
       </c>
@@ -12788,7 +12816,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>672</v>
       </c>
@@ -12862,7 +12890,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>689</v>
       </c>
@@ -12936,7 +12964,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>703</v>
       </c>
@@ -13010,7 +13038,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>719</v>
       </c>
@@ -13084,7 +13112,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>737</v>
       </c>
@@ -13158,7 +13186,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>753</v>
       </c>
@@ -13232,7 +13260,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>767</v>
       </c>
@@ -13306,7 +13334,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>782</v>
       </c>
@@ -13380,7 +13408,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>800</v>
       </c>
@@ -13454,7 +13482,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>815</v>
       </c>
@@ -13528,7 +13556,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>827</v>
       </c>
@@ -13595,11 +13623,14 @@
       <c r="V50" s="2" t="s">
         <v>716</v>
       </c>
+      <c r="W50" s="1" t="s">
+        <v>854</v>
+      </c>
       <c r="X50" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>841</v>
       </c>
@@ -13666,14 +13697,11 @@
       <c r="V51" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="W51" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="X51" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>855</v>
       </c>
@@ -13747,7 +13775,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>873</v>
       </c>
@@ -13821,7 +13849,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>888</v>
       </c>
@@ -13895,7 +13923,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>899</v>
       </c>
@@ -13969,7 +13997,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>914</v>
       </c>
@@ -14043,7 +14071,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>928</v>
       </c>
@@ -14117,7 +14145,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>943</v>
       </c>
@@ -14191,7 +14219,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>960</v>
       </c>
@@ -14265,7 +14293,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>974</v>
       </c>
@@ -14339,7 +14367,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>985</v>
       </c>
@@ -14413,7 +14441,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>999</v>
       </c>
@@ -14487,7 +14515,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1018</v>
       </c>
@@ -14561,7 +14589,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1034</v>
       </c>
@@ -14635,7 +14663,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1049</v>
       </c>
@@ -14709,7 +14737,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14783,7 +14811,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1078</v>
       </c>
@@ -14857,7 +14885,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1090</v>
       </c>
@@ -14931,7 +14959,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1105</v>
       </c>
@@ -15005,7 +15033,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1120</v>
       </c>
@@ -15079,7 +15107,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1136</v>
       </c>
@@ -15154,10 +15182,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="V1:V71" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="X68"/>
-    <hyperlink r:id="rId2" ref="X70"/>
+    <hyperlink ref="X68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X70" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/top_decade_songs.xlsx
+++ b/data/top_decade_songs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\SICSS India\sicss-project-github\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3718bcc9183a9f2/Documents/GitHub/sicss-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CB278-6AE6-4ACF-B943-18B185330A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{112CB278-6AE6-4ACF-B943-18B185330A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C0CF03C-4B0B-41A9-901F-0D0EC056DFCA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_decade_songs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1141">
   <si>
     <t>track_id</t>
   </si>
@@ -8078,216 +8078,6 @@
 </t>
   </si>
   <si>
-    <t>5QtQFSdyZEl0w4iDxAyv76</t>
-  </si>
-  <si>
-    <t>Namo Namo</t>
-  </si>
-  <si>
-    <t>Kedarnath</t>
-  </si>
-  <si>
-    <t>Amit Trivedi</t>
-  </si>
-  <si>
-    <t>11/27/2018</t>
-  </si>
-  <si>
-    <t>0.00032225</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.121</t>
-  </si>
-  <si>
-    <t>-6.216</t>
-  </si>
-  <si>
-    <t>0.0304</t>
-  </si>
-  <si>
-    <t>119.935</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>जय हो जय हो शंकरा
-भोलेनाथ शंकरा
-आदि देव शंकरा
-हे शिवाय शंकरा
-तेरे जाप के बिना
-भोलेनाथ शंकरा
-चले ये साँस किस तरह
-हे शिवाय शंकरा
-मेरा कर्म तू ही जाने
-क्या बुरा है क्या भला
-तेरे रास्ते पे मैं तो
-आँख मूँद के चला
-तेरे नाम की, जोत ने
-सारा हर लिया तमस मेरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-(संगीत)
-सृष्टि के जनम से भी
-पहले तेरा वास था
-ये जग रहे या ना रहे
-रहेगी तेरी आस्था
-क्या समय, क्या प्रलय
-दोनों में तेरी महानता
-महानता, महानता
-सीपियों की ओट में
-भोलेनाथ शंकरा
-मोतियाँ हो जिस तरह
-हे शिवाय शंकरा
-मेरे मन में शंकरा
-भोलेनाथ शंकरा
-तू बसा है उस तरह
-हे शिवाय शंकरा
-मुझे भरम था जो है मेरा
-था कभी नहीं मेरा
-अर्थ क्या निरर्थ क्या
-जो भी है सभी तेरा
-तेरे सामने, है झुका
-मेरे सर पे हाथ रख तेरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-(संगीत)
-चन्द्रमा ललाट पे
-भस्म है भुजाओं में
-वस्त्र बाघ छाल का
-है खड़ाऊ पाँव में
-प्यास क्या, और तुझे
-गंगा है तेरी जटाओं में
-जटाओं में, जटाओं में
-दूसरों के वास्ते
-भोलेनाथ शंकरा
-तू सदैव ही जिया
-हे शिवाय शंकरा
-माँगा कुछ कभी नहीं
-भोलेनाथ शंकरा
-तूने सिर्फ है दिया
-हे शिवाय शंकरा
-समुद्र मंथन का
-था समय जो आ पड़ा
-द्वंद दोनों लोक में
-विशामृत पे था छिड़ा
-अमृत सभी में बाँट के
-प्याला विष का तूने खुद पिया
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-जय त्रिलोकनाथ शम्भू
-हे शिवाय शंकरा
-नमो नमो जी शंकरा
-भोलेनाथ शंकरा
-रुद्रदेव हे महेश्वरा
-रुद्रदेव हे महेश्वरा
-रुद्रदेव हे महेश्वरा</t>
-  </si>
-  <si>
-    <t>Jai ho jai ho Shankara
-(Bholenath Shankara)
-Aadi dev Shankara
-(Hey Shivay Shankara)
-Tere jaap ke bina
-(Bholenath Shankara)
-Chale ye saans kis tarah
-(Hey Shivay Shankara)
-Mera karm tu hi jaane
-Kya bura hai kya bhalaa…
-Tere raaste pe main toh
-Aankh moond ke chalaa…
-Tere naam ki jot ne
-Saara har liya tamas mera
-(tamas: darkness)
-Namo namo ji Shankara
-Bholenath Shankara
-Hey Triloknath Shambhu
-Hey Shivay Shankara
-Namo Namo ji Shankara
-Bholenath Shankara
-Rudradev hey Maheshvarah
-Srishti ke janam se bhi
-(O o…)
-Pehle tera vaas tha
-(O o…)
-Ye jag rahe ya naa rahe
-(O o…)
-Rahegi teri aastha
-(O o…)
-Kya samay… kya pralay
-Dono mein teri mahaanta
-Mahaanta… mahaanta…
-Seepiyon ki ontt main
-(Bholenath Shankara)
-Motiyaan ho jis tarah
-(Hey Shivay Shankara)
-Mere mann mein Shankara
-(Bholenath Shankara)
-Tu basa hai uss tarah
-(Hey Shivay Shankara)
-Mujhe bharam tha jo hai mera
-Tha nahin kabhi mera…
-Arth kya nirarth kya
-Jo bhi hai sabhi tera…
-Tere saamne hai jhuka
-Mere sar pe haath rakh tera
-Namo Namo ji Shankara
-Bholenath Shankara
-Hey Triloknath Shambhu
-Hey Shivay Shankara
-Namo namo ji Shankara
-Bholenath Shankara
-Rudradev hey Maheshvara
-Chandrama lalaat pe (O o…)
-Bhasm hai bhujaaon mein (O o…)
-Vastra baagh chhaal ka (O o…)
-Hai khadau paanv mein (O o…)
-Pyaas kya ho tujhe
-Ganga hai teri jataaon mein
-Jataaon mein… Jataaon mein…
-Doosron ke waaste
-(Bholenath Shankara)
-Tu sadaiv hai jiya
-(Hey Shivay Shankara)
-Maanga kuch kabhi nahi
-(Bholenath Shankara)
-Tune sirf hai diya
-(Hey Shivay Shankara)
-Samudra manthan ka tha samay jo aa pada
-Dwand dono lok me vish-amrit pe tha chhida
-Amrit sabhi main baant ke
-Pyala vish ka tune khud piya
-Namo Namo ji Shankara
-Bholenath Shankara
-Hey Triloknath Shambhu
-Hey Shivay Shankara
-Namo namo ji Shankara
-Bholenath Shankara
-Rudradev hey Maheshvara
-Rudradev hey Maheshvara
-Rudradev hey Maheshvara</t>
-  </si>
-  <si>
     <t>5WzfGg2ueNoOS5aIkaR9qX</t>
   </si>
   <si>
@@ -9634,6 +9424,78 @@
 Every Where She Make Him Go Crazy
 Gosta You Get Me Yes Not A May Be</t>
   </si>
+  <si>
+    <t>5w0Xpt2YHT2Y3z3e4UUJP7</t>
+  </si>
+  <si>
+    <t>Kaise Hua</t>
+  </si>
+  <si>
+    <t>Kabir Singh</t>
+  </si>
+  <si>
+    <t>6/14/2019</t>
+  </si>
+  <si>
+    <t>Hansta rehta hu tujhse mil kar kyu aajkal
+Badle badle hain mere tevar kyun aajkal
+Aankhein meri har jagah
+Dhoondhe tujhe bewajah
+Ye main hoon ya koi aur hai meri tarah
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Main baarish ki boli samajhta nahi tha
+Hawaaon se main yun ulajhta nahi tha
+Hai seene mein dil bhi
+Kahaan thi mujhe ye khabar
+Kahin pe hon raatein
+Kahin pe savere
+Awaargi hi rahi saath mere
+Thehar ja, thehar ja
+Ye kehti hai teri nazar
+Kya haal ho gaya hai ye mera
+Aankhein meri har jagah
+Dhoondhe tujhe bewajah
+Ye main hoon ya koi aur hai meri tarah
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua
+Kaise hua, kaise hua
+Tu itna zaroori kaise hua</t>
+  </si>
+  <si>
+    <t>हंसता रहता हूँ तुझसे मिल कर क्यूँ आजकल
+बदले बदले हैं मेरे तेवर क्यूँ आजकल
+आँखें मेरी हर जगह
+ढूंढ़ें तुझे बेवजह
+ये मैं हूँ या कोई और है मेरी तरह
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+मैं बारिश की बोली समझता नहीं था
+हवाओं से मैं यूँ उलझता नहीं था
+है सीने में दिल भी
+कहाँ थी मुझे ये ख़बर
+कहीं पे हों रातें
+कहीं पे सवेरे
+आवारगी ही रही साथ मेरे
+ठहर जा, ठहर जा
+ये कहती है तेरी नज़र
+क्या हाल हो गया है ये मेरा
+आँखें मेरी हर जगह
+ढूंढ़ें तुझे बेवजह
+ये मैं हूँ या कोई और है मेरी तरह
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ
+कैसे हुआ, कैसे हुआ
+तू इतना ज़रूरी कैसे हुआ</t>
+  </si>
 </sst>
 </file>
 
@@ -9690,7 +9552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
@@ -9699,6 +9561,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9919,15 +9785,15 @@
   </sheetPr>
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W51" sqref="W51"/>
+      <selection pane="topRight" activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.7265625" customWidth="1"/>
-    <col min="24" max="24" width="28.90625" customWidth="1"/>
+    <col min="2" max="2" width="59.77734375" customWidth="1"/>
+    <col min="24" max="24" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10145,7 +10011,7 @@
       <c r="V3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="6" t="s">
         <v>68</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -11336,7 +11202,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>354</v>
       </c>
@@ -11410,7 +11276,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>368</v>
       </c>
@@ -11484,7 +11350,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>381</v>
       </c>
@@ -11558,7 +11424,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>399</v>
       </c>
@@ -11632,7 +11498,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>418</v>
       </c>
@@ -11706,7 +11572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>433</v>
       </c>
@@ -11780,7 +11646,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>451</v>
       </c>
@@ -11854,7 +11720,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>468</v>
       </c>
@@ -11928,7 +11794,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>487</v>
       </c>
@@ -12002,7 +11868,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>504</v>
       </c>
@@ -12076,7 +11942,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>518</v>
       </c>
@@ -12150,7 +12016,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>533</v>
       </c>
@@ -12224,7 +12090,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>546</v>
       </c>
@@ -12298,7 +12164,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>563</v>
       </c>
@@ -12372,7 +12238,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>579</v>
       </c>
@@ -12446,7 +12312,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>597</v>
       </c>
@@ -12520,7 +12386,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>614</v>
       </c>
@@ -12594,7 +12460,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>630</v>
       </c>
@@ -12668,7 +12534,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>644</v>
       </c>
@@ -12742,7 +12608,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>659</v>
       </c>
@@ -12816,7 +12682,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>672</v>
       </c>
@@ -12890,7 +12756,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>689</v>
       </c>
@@ -12964,7 +12830,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>703</v>
       </c>
@@ -13038,7 +12904,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>719</v>
       </c>
@@ -13112,7 +12978,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>737</v>
       </c>
@@ -13186,7 +13052,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>753</v>
       </c>
@@ -13260,7 +13126,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>767</v>
       </c>
@@ -13334,7 +13200,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>782</v>
       </c>
@@ -13408,7 +13274,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>800</v>
       </c>
@@ -13482,7 +13348,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>815</v>
       </c>
@@ -13556,7 +13422,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>827</v>
       </c>
@@ -13630,7 +13496,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>841</v>
       </c>
@@ -13701,57 +13567,57 @@
         <v>840</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>787</v>
+        <v>878</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>474</v>
+        <v>54</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>862</v>
+        <v>388</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>242</v>
+        <v>880</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>863</v>
+        <v>65</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>208</v>
+        <v>881</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>867</v>
+        <v>170</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>64</v>
@@ -13763,75 +13629,75 @@
         <v>868</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>870</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>873</v>
+        <v>974</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>874</v>
+        <v>975</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>874</v>
+        <v>976</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>875</v>
+        <v>740</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>876</v>
+        <v>977</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>877</v>
+        <v>978</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>878</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>879</v>
+        <v>833</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>388</v>
+        <v>979</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>880</v>
+        <v>656</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>881</v>
+        <v>654</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>882</v>
+        <v>980</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>883</v>
+        <v>981</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>884</v>
+        <v>982</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>170</v>
+        <v>835</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>64</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>868</v>
@@ -13843,13 +13709,13 @@
         <v>870</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>886</v>
+        <v>983</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>887</v>
+        <v>984</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>888</v>
       </c>
@@ -13923,7 +13789,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>899</v>
       </c>
@@ -13997,7 +13863,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>914</v>
       </c>
@@ -14071,7 +13937,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>928</v>
       </c>
@@ -14145,24 +14011,24 @@
         <v>942</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>943</v>
+        <v>855</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>944</v>
+        <v>856</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>944</v>
+        <v>857</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>946</v>
+        <v>858</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>859</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>947</v>
+        <v>860</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>787</v>
@@ -14171,31 +14037,31 @@
         <v>474</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>948</v>
+        <v>861</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>949</v>
+        <v>862</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>950</v>
+        <v>242</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>65</v>
+        <v>863</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>951</v>
+        <v>208</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>952</v>
+        <v>864</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>953</v>
+        <v>865</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>954</v>
+        <v>866</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>955</v>
+        <v>867</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>64</v>
@@ -14204,72 +14070,72 @@
         <v>41</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>956</v>
+        <v>868</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>957</v>
+        <v>869</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>870</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>958</v>
+        <v>871</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>959</v>
+        <v>872</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>963</v>
+        <v>945</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>946</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>787</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>313</v>
+        <v>948</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>967</v>
+        <v>65</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>64</v>
@@ -14278,78 +14144,78 @@
         <v>41</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>868</v>
+        <v>956</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>885</v>
+        <v>957</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>870</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>740</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>878</v>
+        <v>787</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>833</v>
+        <v>313</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>656</v>
+        <v>966</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>65</v>
+        <v>967</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>654</v>
+        <v>968</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>64</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>868</v>
@@ -14361,104 +14227,104 @@
         <v>870</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:24" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F61" s="7">
+        <v>2.34721999999999E-4</v>
+      </c>
+      <c r="G61" s="7">
+        <v>70</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.442</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0.109</v>
+      </c>
+      <c r="N61" s="7">
+        <v>-6.9729999999999999</v>
+      </c>
+      <c r="O61" s="7">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="P61" s="7">
+        <v>137.79599999999999</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R61" s="7">
+        <v>4</v>
+      </c>
+      <c r="S61" s="7">
+        <v>1</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="U61" s="7">
+        <v>2019</v>
+      </c>
+      <c r="V61" s="7">
+        <v>2010</v>
+      </c>
+      <c r="W61" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="X61" s="6" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>878</v>
@@ -14467,31 +14333,31 @@
         <v>54</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>64</v>
@@ -14500,72 +14366,72 @@
         <v>41</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>474</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>935</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>64</v>
@@ -14577,69 +14443,69 @@
         <v>956</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>151</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>966</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>64</v>
@@ -14651,39 +14517,39 @@
         <v>868</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>740</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>65</v>
@@ -14695,25 +14561,25 @@
         <v>212</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>64</v>
@@ -14722,72 +14588,72 @@
         <v>41</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>64</v>
@@ -14796,42 +14662,42 @@
         <v>41</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>931</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>76</v>
@@ -14843,25 +14709,25 @@
         <v>509</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>210</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="R67" s="2" t="s">
         <v>64</v>
@@ -14870,42 +14736,42 @@
         <v>41</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U67" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X67" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="X67" s="4" t="s">
-        <v>1089</v>
-      </c>
     </row>
-    <row r="68" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>151</v>
@@ -14914,25 +14780,25 @@
         <v>379</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>558</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>906</v>
@@ -14947,66 +14813,66 @@
         <v>868</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>55</v>
@@ -15018,72 +14884,72 @@
         <v>41</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>227</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>64</v>
@@ -15092,72 +14958,72 @@
         <v>65</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="X70" s="5" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>740</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>343</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>64</v>
@@ -15166,29 +15032,32 @@
         <v>65</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="V1:V71" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2000"/>
+        <filter val="2010"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:X61">
+    <sortCondition descending="1" ref="G1:G71"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="X68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="X70" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
